--- a/static/data/ServedTime.xlsx
+++ b/static/data/ServedTime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iceline\Desktop\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\database_project\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880C5FCA-A4B8-4DDA-83B5-75A283A656C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF9CEBA-A768-41C5-84C0-D2ED73553F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,19 +35,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Lunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dinner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Breakfast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lunch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dinner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Snack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,11 +91,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -376,178 +373,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
